--- a/FDTD1D/test.xlsx
+++ b/FDTD1D/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xhoni\OneDrive\Desktop\Master Thesis\trunk\FDTD1D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8DE058-CE27-41D1-9906-0B6E42C095CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF62198A-D088-4242-99DC-88DB7166483C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,6 +23,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7807,6 +7812,2682 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Instability</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$ADU$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="801"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.2210000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.6100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.277E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.6990000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8.3359999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.2163E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.9747000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.8427000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.3180000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.0430999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>8.6790999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.11722299999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.160028</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.20779700000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.27040799999999998</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.33686300000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.418541</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.49959100000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.59326199999999996</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.67794699999999997</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.77002000000000004</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.84182900000000005</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.91516900000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.95650400000000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.99604700000000002</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.99432299999999996</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.99295500000000003</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.94539499999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.90707000000000004</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.82160999999999995</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.75998500000000002</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.65176199999999995</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.58513899999999996</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.47047299999999997</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.41576999999999997</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.30671700000000002</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.275314</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.176982</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.17377500000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>8.4732000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.10981299999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.4372999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7.5758000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-1.3514E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6.2475000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-3.8137999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6.2379999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-5.6559999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7.0472999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-7.3425000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>8.4098999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-9.1550999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.102253</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.112679</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.12493899999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.13805700000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.15273600000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.16881199999999999</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.18659000000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-0.20615700000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.22773299999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.25149899999999997</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.27768199999999998</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-0.30651899999999999</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.33827499999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.37324000000000002</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.41173300000000002</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.45410200000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.50073000000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.55203999999999998</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.60849200000000003</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.67059299999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.7389</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.81402300000000005</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.89663000000000004</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.98745799999999995</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.08731</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-1.197071</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.3177099999999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-1.450291</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.595977</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-1.756049</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.931907</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-2.1250879999999999</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.3372760000000001</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-2.5703200000000002</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.8262429999999998</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-3.1072660000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.4158200000000001</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-3.754572</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4.1264440000000002</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-4.5346399999999996</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4.9826670000000002</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-5.4743729999999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6.0139699999999996</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-6.6060749999999997</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>7.2557479999999996</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-7.9685290000000002</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>8.7504910000000002</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-9.6082830000000001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>10.549191</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-11.581194999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>12.713037</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-13.954288</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>15.315434</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-16.807957999999999</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>18.444434000000001</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-20.238633</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>22.205634</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-24.361948999999999</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>26.725656000000001</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-29.316552000000001</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>32.156308000000003</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-35.268652000000003</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>38.679561999999997</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-42.417473999999999</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>46.51352</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-51.001778999999999</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>55.919550999999998</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-61.307670000000002</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>67.210825</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-73.677933999999993</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>80.762535</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-88.523219999999995</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>97.024117000000004</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-106.33540499999999</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>116.533883</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-127.703594</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>139.93650600000001</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-153.33325400000001</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>168.00395399999999</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-184.069097</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>201.660516</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-220.92245700000001</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>242.01273699999999</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-265.10401999999999</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>290.38520999999997</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-318.06297000000001</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>348.36338899999998</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-381.53379699999999</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>417.84476000000001</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-457.59225500000002</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>501.10004300000003</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-548.72227799999996</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>600.84634100000005</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-657.89595999999995</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>720.33460000000002</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-788.66918199999998</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>863.45414800000003</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-945.29589899999996</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1034.857655</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-1132.864759</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1240.110486</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-1357.462383</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1485.8692040000001</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-1626.3684989999999</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1780.094891</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-1948.289149</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2132.3080789999999</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-2333.6353600000002</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2553.8933740000002</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-2794.8561410000002</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>3058.4634609999998</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-3346.8363680000002</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>3662.294022</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-4007.3721770000002</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>4384.8433640000003</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-4797.7389480000002</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>5249.3732419999997</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-5743.3698590000004</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>6283.690517</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-6874.6665199999998</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>7521.0331649999998</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-8227.9673449999991</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>9001.1286529999998</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-9846.7042949999995</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>10771.458186</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-11782.784594999999</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>12888.766786</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-14098.241094000001</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>15420.866953000001</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-16867.203434999999</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>18448.792879000001</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-20178.252297999999</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>22069.373262000001</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-24137.231050999999</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>26398.303942999999</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-28870.603563000001</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>31573.817330999998</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-34529.464123999998</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>37761.064373000001</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-41294.325945999997</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>45157.347259000002</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-49380.839227999997</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>53998.367804000001</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-59046.618992000003</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>64565.688434000003</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-70599.396036999999</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>77195.641743999993</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-84406.755470000004</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>92289.965530000001</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-100907.753849</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>110328.505655</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-120626.797765</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>131884.377817</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-144190.20992200001</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>157642.07053299999</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-172346.00822300001</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>188419.055895</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-205987.52014400001</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>225191.587134</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-246181.57539799999</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>269125.49380400003</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-294202.16246000002</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>321612.94367299997</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-351570.60431999998</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>384316.329234</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-420103.512162</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>459220.66050599999</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-501970.02048299997</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>548696.11051699996</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-599760.10131000006</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>655572.67430700001</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-716566.10644700006</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>783229.27882000001</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-856080.10306500003</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>935700.13406299998</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-1022710.060726</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1117801.6600629999</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-1221718.533549</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>1335283.973922</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-1459388.1814850001</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>1595011.6934539999</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-1743219.314299</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1905179.730923</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-2082165.6473010001</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>2275570.842197</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-2486915.658175</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>2717863.0003689998</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-2970228.3641929999</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>3245996.2210129998</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-3547334.0424029999</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>3876610.3276499999</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-4236412.4461559998</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>4629567.3673219997</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>-5059163.4943430005</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>5528575.0356799997</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>-6041488.3016229998</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>6601930.6309190001</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>-7214301.8690290004</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>7883408.8252720004</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>-8614502.8719609994</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>9413321.0395919997</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>-10286130.89504</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>11239779.571613001</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>-12281747.3237</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>13420206.02923</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-14664083.093775</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>16023131.256358</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>-17508004.840950001</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>19130343.048927002</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>-20902860.942163002</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>22839448.826577999</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>-24955280.811393999</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>27266933.390843</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>-29792514.973228</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>32551807.367520001</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>-35566420.330870003</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>38859960.382188</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>-42458215.198100999</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>46389355.029011004</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>-50684152.705568001</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>55376223.950737</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>-60502289.870762996</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>66102463.671177998</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>-72220563.832622007</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>78904456.187400997</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>-86206427.562758997</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>94183593.902709007</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>-102898346.04877</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>112418836.653229</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>-122819512.018821</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>134181693.008586</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>-146594209.55169001</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>160154093.68831301</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>-174967336.55246001</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>191149715.18931201</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>-208827695.64736801</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>228139419.379426</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>-249235780.634873</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>272281603.23406798</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>-297456925.88908398</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>324958406.07992798</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>-355000853.418033</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>387818904.43653601</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>-423668851.84745902</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>462830642.50793397</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>-505610059.65039998</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>552341106.36550999</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>-603388608.89236999</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>659151059.98097706</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>-720063724.45951796</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>786602031.17913198</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>-859285277.73666203</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>938680676.80911803</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>-1025407775.5909899</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>1120143282.72787</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>-1223626340.3094599</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>1336664281.9469399</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>-1460138921.7402899</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>1595013423.07039</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>-1742339800.6600399</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>1903267114.2733099</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>-2079050417.8013201</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>2271060533.3568201</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>-2480794726.4156699</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>2709888365.0499401</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>-2960127653.94945</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>3233463542.2857299</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>-3532026913.5996699</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>3858145175.8617301</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>-4214360380.7400398</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>4603449013.0007801</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>-5028443603.94944</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>5492656337.0023699</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>-5999704828.9643803</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>6553540287.5020704</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>-7158478263.7737303</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>7819232239.3497105</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>-8540950308.5885801</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>9329255241.69491</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>-10190288239.9615</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>11130756723.3969</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>-12157986522.2782</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>13279978878.3993</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>-14505472699.163099</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>15844012548.4902</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>-17306022903.100498</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>18902889251.4132</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>-20647046665.487301</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>22552076534.4939</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>-24632812211.636101</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>26905454395.6917</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>-29387697143.996498</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>32098865496.294498</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>-35060065779.097198</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>38294349758.718201</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>-41826893918.7519</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>45685195255.269501</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>-49899285111.339699</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>54501962712.632004</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>-59529050218.912804</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>65019671273.402901</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>-71016555214.508194</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>77566369313.791504</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>-84720081621.774307</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>92533357240.919693</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>-101066991104.812</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>110387380626.123</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>-120567041885.646</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>131685173372.871</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>-143828271657.96301</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>157090803778.31699</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>-171575941563.418</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>187396363602.78</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>-204675131087.12799</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>223546644326.70499</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>-244157687377.22</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>266668568888.17599</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>-291254368035.64502</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>318106295217.64801</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>-347433178081.53302</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>379463084426.065</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>-414445094583.883</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>452651237050.776</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>-494378602395.91199</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>539951651871.60797</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>-589724738653.05798</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>644084861289.60095</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>-703454670752.172</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>768295754430.76697</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>-839112222586.17297</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>916454625108.68201</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>-1000924229001.17</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>1093177689804.8</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>-1193932153244.1001</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>1303970826708.78</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>-1424149063837.26</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>1555401009450.6299</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>-1698746856436.3301</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>1855300770931.75</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>-2026279547346.6001</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>2213012060428.6602</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>-2416949587765.8198</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>2639677082874.3301</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>-2882925486403.2002</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>3148585171043.3599</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>-3438720624531.6602</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>3755586484750.46</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>-4101645051420.23</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>4479585410344.6396</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>-4892344318685.5801</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>5343129013415.0801</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>-5835442120021.0098</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>6373108854844.2402</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>-6960306732231.8496</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>7601598007129.5801</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>-8301965104975.7598</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>9066849313937.1309</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>-9902193039862.7598</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>10814485951966.1</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>-11810815377471.4</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>12898921336402.1</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>-14087256643754.4</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>15385052545565.199</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>-16802390398414</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>18350279948707.801</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>-20040744819435.199</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>21886915867880</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>-23903133139028.398</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>26105057205936.301</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>-28509790761376.602</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>31136011404425.699</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>-34004116652763.5</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>37136382306100.602</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>-40557135390005.797</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>44292943022313.703</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>-48372818668103.297</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>52828447383945.5</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>-57694431799706.898</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>63008560746918.703</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>-68812102618651.602</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>75150125737592.797</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>-82071848218752</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>89631020041981.203</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>-97886340299544.203</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>106901912856843</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>-116747743962560</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>127500285669934</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>-139243029286423</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>152067153457168</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>-166072231911651</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>181367006365854</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>-198070230577852</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>216311592106840</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>-236232718928553</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>257988278718457</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>-281747179333125</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>307693879805428</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>-336029822026679</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>366974994225266</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>-400769638373959</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>437676114774792</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>-477980938289959</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>521997002018970</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>-570066005676638</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>622561107514736</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>-679889820364560</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>742497174271700</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>-810869170262714</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>885536552042167</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>-967078924885183</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>1056129253684350</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>-1153378775051540</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>1259582361587430</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>-1375564379939870</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>1502225088102880</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>-1640547621591970</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>1791605622699670</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>-1956571572024900</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>2136725886917350</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>-2333466857428640</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>2548321496858760</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>-2782957391082180</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>3039195638586240</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>-3319024981616130</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>3624617238061350</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>-3958344153809250</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>4322795806311120</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>-4720800702139940</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>5155447724460840</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>-5630110100685780</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>6148471576256160</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>-6714554997611180</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>7332753526089070</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>-8007864724917970</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>8745127783740910</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>-9550264169458670</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>1.04295220187537E+16</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>-1.1389724616684E+16</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>1.24383233374312E+16</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>-1.35834554579054E+16</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>1.48340072927031E+16</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>-1.61996831402E+16</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>1.76910805746332E+16</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>-1.93197726682575E+16</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>2.10983977814159E+16</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>-2.3040757617071E+16</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>2.51619243004493E+16</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>-2.74783573144614E+16</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>3.000803119801E+16</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>-3.27705749977845E+16</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>3.57874245553151E+16</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>-3.90819888106148E+16</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>4.267983141247E+16</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>-4.66088690441642E+16</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>5.0899588003081904E+16</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>-5.5585280714229504E+16</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>6.0702304012331504E+16</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>-6.6290361196012496E+16</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>7.2392810041969696E+16</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>-7.90569991684E+16</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>8.6334635356842E+16</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>-9.42821846817244E+16</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>1.02961310559142E+17</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>-1.12439352112752E+17</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>1.2278984656738499E+17</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>-1.3409309972249699E+17</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>1.4643680893048E+17</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>-1.5991674341212602E+17</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>1.7463748718625501E+17</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>-1.9071325037618701E+17</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>2.0826875518606598E+17</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>-2.2744020341925402E+17</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>2.4837633304341699E+17</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>-2.7123957199764499E+17</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>2.9620729819115898E+17</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>-3.2347321546678899E+17</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>3.5324885620188301E+17</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>-3.8576522220149798E+17</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>4.2127457661135302E+17</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>-4.6005240074935002E+17</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>5.0239953103358003E+17</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>-5.4864449258159098E+17</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>5.9914604758106803E+17</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>-6.5429597819784499E+17</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>7.1452212560626406E+17</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>-7.8029170871333696E+17</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>8.5211494831749798E+17</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>-9.3054902481161894E+17</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>1.01620240012693E+18</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>-1.10973953743953E+18</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>1.2118860552460001E+18</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>-1.32343435578384E+18</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>1.4452497714510001E+18</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>-1.57827727689662E+18</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>1.72354881884209E+18</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>-1.88219132048254E+18</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>2.05543542255091E+18</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>-2.24462502883983E+18</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>2.4512277302158397E+18</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>-2.6768461879738701E+18</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>2.9232305648198001E+18</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>-3.1922920998946202E+18</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>3.48611793312574E+18</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>-3.80698729388081E+18</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>4.1573891794801101E+18</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>-4.5400416606783002E+18</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>4.9579129638444298E+18</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>-5.4142444933482404E+18</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>5.9125759727081103E+18</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>-6.4567728994880604E+18</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>7.0510565268753398E+18</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>-7.7000366044658801E+18</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>8.4087471321833902E+18</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>-9.1826854046264801E+18</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>1.00278546486563E+19</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>-1.0950810584904401E+19</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>1.19587122743121E+19</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>-1.3059377644043801E+19</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>1.4261344123408099E+19</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>-1.55739348600494E+19</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>1.70073310299486E+19</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>-1.8572650802032898E+19</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>2.0282035569800798E+19</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>-2.21487441187277E+19</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>2.4187255459759198E+19</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>-2.6413381126408798E+19</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>2.8844387806368301E+19</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>-3.14991312586844E+19</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>3.4398202555076399E+19</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>-3.7564087779548504E+19</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>4.1021342424816501E+19</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>-4.47967818380491E+19</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>4.8919689192884298E+19</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>-5.3422042600602403E+19</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>5.8338763121761698E+19</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>-6.3707985601686397E+19</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>6.9571354430199398E+19</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>-7.5974346519278698E+19</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>8.2966624003392307E+19</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>-9.0602419397768102E+19</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>9.8940956201564504E+19</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>-1.08046908207783E+20</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>1.17990901081936E+20</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>-1.2885006009927E+20</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>1.40708608288308E+20</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>-1.5365851961936799E+20</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>1.6780023230359201E+20</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>-1.8324342773415399E+20</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>2.00107881110387E+20</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>-2.18524390341441E+20</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>2.3863579043314899E+20</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>-2.6059806122466899E+20</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>2.8458153706541298E+20</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>-3.1077222781326E+20</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>3.3937326139837101E+20</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>-3.7060645913962899E+20</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>4.0471405603015898E+20</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>-4.4196057933266302E+20</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>4.8263490005288898E+20</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>-5.2705247320021402E+20</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>5.7555778420834199E+20</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>-6.2852702048777195E+20</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>6.8637098882760206E+20</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>-7.49538301270669E+20</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>8.18518854167985E+20</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>-8.9384762739194895E+20</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>9.7610883317052001E+20</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>-1.06594044671577E+21</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>1.16403915378088E+21</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>-1.2711657535128501E+21</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>1.3881510584986601E+21</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>-1.5159023377585899E+21</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>1.6554103526501201E+21</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>-1.8077570402442999E+21</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>1.9741239037568399E+21</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>-2.1558011750994199E+21</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>2.3541978206040199E+21</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>-2.5708524675115899E+21</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>2.8074453359564601E+21</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>-3.0658112689750802E+21</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>3.34795396158242E+21</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>-3.65606149925743E+21</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>3.99252332633283E+21</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>-4.3599487758729898E+21</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>4.7611873047316896E+21</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>-5.1993505907048805E+21</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>5.6778366631328895E+21</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>-6.20035625407484E+21</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>6.7709615743975303E+21</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>-7.3940777379248703E+21</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>8.0745370773280795E+21</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>-8.8176166178610301E+21</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>9.6290789995319206E+21</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>-1.0515217165043601E+22</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>1.14829031600361E+22</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>-1.25396414240524E+22</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>1.3693626985473399E+22</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>-1.49538090116935E+22</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>1.63299602073348E+22</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>-1.7832752598647499E+22</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>1.9473840291763102E+22</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>-2.1265949846545302E+22</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>2.3222978966837698E+22</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>-2.5360104272396101E+22</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>2.76938989882135E+22</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>-3.0242461463851599E+22</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>3.3025555519369101E+22</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>-3.60647637061456E+22</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>3.9383654671046301E+22</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>-4.3007965921732599E+22</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>4.69658034103496E+22</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>-5.1287859483236199E+22</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>5.60076508867171E+22</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>-6.1161778674557904E+22</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>6.67902120324942E+22</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>-7.2936598220705001E+22</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>7.9648601037626304E+22</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>-8.6978270429659198E+22</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>9.4982446112843703E+22</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>-1.0372319833629999E+23</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>1.1326830920525E+23</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>-1.2369179829593101E+23</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>1.35074496638178E+23</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>-1.4750467351647201E+23</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>1.61078720949858E+23</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>-1.7590190115835301E+23</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>1.9208916281187999E+23</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>-2.0976603239114199E+23</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>2.2906958757223E+23</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>-2.50149520182835E+23</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>2.73169296972445E+23</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>-2.9830742719739501E+23</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>3.2575884684988901E+23</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>-3.5573643026456903E+23</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>3.8847264082394003E+23</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>-4.2422133356250501E+23</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>4.6325972364734401E+23</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>-5.0589053599906398E+23</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>5.5244435272163699E+23</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>-6.0328217654347497E+23</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>6.5879823014704406E+23</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>-7.19423013093444E+23</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>7.8562664004574604E+23</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>-8.5792248617613801E+23</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>9.3687116802380995E+23</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>-1.0230848906716299E+24</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>1.11723219495012E+24</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>-1.22004314147904E+24</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>1.33231497174418E+24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B8A-4F0A-B88F-7EC3607F8626}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2126450736"/>
+        <c:axId val="2126466960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2126450736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2126466960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2126466960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2126450736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7848,6 +10529,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8919,6 +11640,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8990,6 +12227,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46F6850-DF1C-453B-A4C2-C33C2689BCBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9263,8 +12541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ADT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN29" sqref="AN29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16480,6 +19758,2424 @@
       </c>
       <c r="ADT3">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DF3705-F3C1-4F60-B51F-8AB880483024}">
+  <dimension ref="A1:ADT1"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:800" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <v>0</v>
+      </c>
+      <c r="AC1">
+        <v>0</v>
+      </c>
+      <c r="AD1">
+        <v>0</v>
+      </c>
+      <c r="AE1">
+        <v>0</v>
+      </c>
+      <c r="AF1">
+        <v>0</v>
+      </c>
+      <c r="AG1">
+        <v>0</v>
+      </c>
+      <c r="AH1">
+        <v>0</v>
+      </c>
+      <c r="AI1">
+        <v>0</v>
+      </c>
+      <c r="AJ1">
+        <v>0</v>
+      </c>
+      <c r="AK1">
+        <v>0</v>
+      </c>
+      <c r="AL1">
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <v>0</v>
+      </c>
+      <c r="AN1">
+        <v>0</v>
+      </c>
+      <c r="AO1">
+        <v>0</v>
+      </c>
+      <c r="AP1">
+        <v>0</v>
+      </c>
+      <c r="AQ1">
+        <v>0</v>
+      </c>
+      <c r="AR1">
+        <v>0</v>
+      </c>
+      <c r="AS1">
+        <v>0</v>
+      </c>
+      <c r="AT1">
+        <v>0</v>
+      </c>
+      <c r="AU1">
+        <v>0</v>
+      </c>
+      <c r="AV1">
+        <v>0</v>
+      </c>
+      <c r="AW1">
+        <v>0</v>
+      </c>
+      <c r="AX1">
+        <v>0</v>
+      </c>
+      <c r="AY1">
+        <v>0</v>
+      </c>
+      <c r="AZ1">
+        <v>0</v>
+      </c>
+      <c r="BA1">
+        <v>0</v>
+      </c>
+      <c r="BB1">
+        <v>0</v>
+      </c>
+      <c r="BC1">
+        <v>0</v>
+      </c>
+      <c r="BD1">
+        <v>0</v>
+      </c>
+      <c r="BE1">
+        <v>0</v>
+      </c>
+      <c r="BF1">
+        <v>0</v>
+      </c>
+      <c r="BG1">
+        <v>0</v>
+      </c>
+      <c r="BH1">
+        <v>0</v>
+      </c>
+      <c r="BI1">
+        <v>0</v>
+      </c>
+      <c r="BJ1">
+        <v>0</v>
+      </c>
+      <c r="BK1">
+        <v>0</v>
+      </c>
+      <c r="BL1">
+        <v>0</v>
+      </c>
+      <c r="BM1">
+        <v>0</v>
+      </c>
+      <c r="BN1">
+        <v>0</v>
+      </c>
+      <c r="BO1">
+        <v>0</v>
+      </c>
+      <c r="BP1">
+        <v>0</v>
+      </c>
+      <c r="BQ1">
+        <v>0</v>
+      </c>
+      <c r="BR1">
+        <v>0</v>
+      </c>
+      <c r="BS1">
+        <v>0</v>
+      </c>
+      <c r="BT1">
+        <v>0</v>
+      </c>
+      <c r="BU1">
+        <v>0</v>
+      </c>
+      <c r="BV1">
+        <v>0</v>
+      </c>
+      <c r="BW1">
+        <v>0</v>
+      </c>
+      <c r="BX1">
+        <v>0</v>
+      </c>
+      <c r="BY1">
+        <v>0</v>
+      </c>
+      <c r="BZ1">
+        <v>0</v>
+      </c>
+      <c r="CA1">
+        <v>0</v>
+      </c>
+      <c r="CB1">
+        <v>0</v>
+      </c>
+      <c r="CC1">
+        <v>0</v>
+      </c>
+      <c r="CD1">
+        <v>0</v>
+      </c>
+      <c r="CE1">
+        <v>0</v>
+      </c>
+      <c r="CF1">
+        <v>0</v>
+      </c>
+      <c r="CG1">
+        <v>0</v>
+      </c>
+      <c r="CH1">
+        <v>0</v>
+      </c>
+      <c r="CI1">
+        <v>0</v>
+      </c>
+      <c r="CJ1">
+        <v>0</v>
+      </c>
+      <c r="CK1">
+        <v>0</v>
+      </c>
+      <c r="CL1">
+        <v>0</v>
+      </c>
+      <c r="CM1">
+        <v>0</v>
+      </c>
+      <c r="CN1">
+        <v>0</v>
+      </c>
+      <c r="CO1">
+        <v>0</v>
+      </c>
+      <c r="CP1">
+        <v>0</v>
+      </c>
+      <c r="CQ1">
+        <v>0</v>
+      </c>
+      <c r="CR1">
+        <v>0</v>
+      </c>
+      <c r="CS1">
+        <v>0</v>
+      </c>
+      <c r="CT1">
+        <v>0</v>
+      </c>
+      <c r="CU1">
+        <v>0</v>
+      </c>
+      <c r="CV1">
+        <v>1.2210000000000001E-3</v>
+      </c>
+      <c r="CW1">
+        <v>1.6100000000000001E-3</v>
+      </c>
+      <c r="CX1">
+        <v>3.277E-3</v>
+      </c>
+      <c r="CY1">
+        <v>4.6990000000000001E-3</v>
+      </c>
+      <c r="CZ1">
+        <v>8.3359999999999997E-3</v>
+      </c>
+      <c r="DA1">
+        <v>1.2163E-2</v>
+      </c>
+      <c r="DB1">
+        <v>1.9747000000000001E-2</v>
+      </c>
+      <c r="DC1">
+        <v>2.8427000000000001E-2</v>
+      </c>
+      <c r="DD1">
+        <v>4.3180000000000003E-2</v>
+      </c>
+      <c r="DE1">
+        <v>6.0430999999999999E-2</v>
+      </c>
+      <c r="DF1">
+        <v>8.6790999999999993E-2</v>
+      </c>
+      <c r="DG1">
+        <v>0.11722299999999999</v>
+      </c>
+      <c r="DH1">
+        <v>0.160028</v>
+      </c>
+      <c r="DI1">
+        <v>0.20779700000000001</v>
+      </c>
+      <c r="DJ1">
+        <v>0.27040799999999998</v>
+      </c>
+      <c r="DK1">
+        <v>0.33686300000000002</v>
+      </c>
+      <c r="DL1">
+        <v>0.418541</v>
+      </c>
+      <c r="DM1">
+        <v>0.49959100000000001</v>
+      </c>
+      <c r="DN1">
+        <v>0.59326199999999996</v>
+      </c>
+      <c r="DO1">
+        <v>0.67794699999999997</v>
+      </c>
+      <c r="DP1">
+        <v>0.77002000000000004</v>
+      </c>
+      <c r="DQ1">
+        <v>0.84182900000000005</v>
+      </c>
+      <c r="DR1">
+        <v>0.91516900000000001</v>
+      </c>
+      <c r="DS1">
+        <v>0.95650400000000002</v>
+      </c>
+      <c r="DT1">
+        <v>0.99604700000000002</v>
+      </c>
+      <c r="DU1">
+        <v>0.99432299999999996</v>
+      </c>
+      <c r="DV1">
+        <v>0.99295500000000003</v>
+      </c>
+      <c r="DW1">
+        <v>0.94539499999999999</v>
+      </c>
+      <c r="DX1">
+        <v>0.90707000000000004</v>
+      </c>
+      <c r="DY1">
+        <v>0.82160999999999995</v>
+      </c>
+      <c r="DZ1">
+        <v>0.75998500000000002</v>
+      </c>
+      <c r="EA1">
+        <v>0.65176199999999995</v>
+      </c>
+      <c r="EB1">
+        <v>0.58513899999999996</v>
+      </c>
+      <c r="EC1">
+        <v>0.47047299999999997</v>
+      </c>
+      <c r="ED1">
+        <v>0.41576999999999997</v>
+      </c>
+      <c r="EE1">
+        <v>0.30671700000000002</v>
+      </c>
+      <c r="EF1">
+        <v>0.275314</v>
+      </c>
+      <c r="EG1">
+        <v>0.176982</v>
+      </c>
+      <c r="EH1">
+        <v>0.17377500000000001</v>
+      </c>
+      <c r="EI1">
+        <v>8.4732000000000002E-2</v>
+      </c>
+      <c r="EJ1">
+        <v>0.10981299999999999</v>
+      </c>
+      <c r="EK1">
+        <v>2.4372999999999999E-2</v>
+      </c>
+      <c r="EL1">
+        <v>7.5758000000000006E-2</v>
+      </c>
+      <c r="EM1">
+        <v>-1.3514E-2</v>
+      </c>
+      <c r="EN1">
+        <v>6.2475000000000003E-2</v>
+      </c>
+      <c r="EO1">
+        <v>-3.8137999999999998E-2</v>
+      </c>
+      <c r="EP1">
+        <v>6.2379999999999998E-2</v>
+      </c>
+      <c r="EQ1">
+        <v>-5.6559999999999999E-2</v>
+      </c>
+      <c r="ER1">
+        <v>7.0472999999999994E-2</v>
+      </c>
+      <c r="ES1">
+        <v>-7.3425000000000004E-2</v>
+      </c>
+      <c r="ET1">
+        <v>8.4098999999999993E-2</v>
+      </c>
+      <c r="EU1">
+        <v>-9.1550999999999993E-2</v>
+      </c>
+      <c r="EV1">
+        <v>0.102253</v>
+      </c>
+      <c r="EW1">
+        <v>-0.112679</v>
+      </c>
+      <c r="EX1">
+        <v>0.12493899999999999</v>
+      </c>
+      <c r="EY1">
+        <v>-0.13805700000000001</v>
+      </c>
+      <c r="EZ1">
+        <v>0.15273600000000001</v>
+      </c>
+      <c r="FA1">
+        <v>-0.16881199999999999</v>
+      </c>
+      <c r="FB1">
+        <v>0.18659000000000001</v>
+      </c>
+      <c r="FC1">
+        <v>-0.20615700000000001</v>
+      </c>
+      <c r="FD1">
+        <v>0.22773299999999999</v>
+      </c>
+      <c r="FE1">
+        <v>-0.25149899999999997</v>
+      </c>
+      <c r="FF1">
+        <v>0.27768199999999998</v>
+      </c>
+      <c r="FG1">
+        <v>-0.30651899999999999</v>
+      </c>
+      <c r="FH1">
+        <v>0.33827499999999999</v>
+      </c>
+      <c r="FI1">
+        <v>-0.37324000000000002</v>
+      </c>
+      <c r="FJ1">
+        <v>0.41173300000000002</v>
+      </c>
+      <c r="FK1">
+        <v>-0.45410200000000001</v>
+      </c>
+      <c r="FL1">
+        <v>0.50073000000000001</v>
+      </c>
+      <c r="FM1">
+        <v>-0.55203999999999998</v>
+      </c>
+      <c r="FN1">
+        <v>0.60849200000000003</v>
+      </c>
+      <c r="FO1">
+        <v>-0.67059299999999999</v>
+      </c>
+      <c r="FP1">
+        <v>0.7389</v>
+      </c>
+      <c r="FQ1">
+        <v>-0.81402300000000005</v>
+      </c>
+      <c r="FR1">
+        <v>0.89663000000000004</v>
+      </c>
+      <c r="FS1">
+        <v>-0.98745799999999995</v>
+      </c>
+      <c r="FT1">
+        <v>1.08731</v>
+      </c>
+      <c r="FU1">
+        <v>-1.197071</v>
+      </c>
+      <c r="FV1">
+        <v>1.3177099999999999</v>
+      </c>
+      <c r="FW1">
+        <v>-1.450291</v>
+      </c>
+      <c r="FX1">
+        <v>1.595977</v>
+      </c>
+      <c r="FY1">
+        <v>-1.756049</v>
+      </c>
+      <c r="FZ1">
+        <v>1.931907</v>
+      </c>
+      <c r="GA1">
+        <v>-2.1250879999999999</v>
+      </c>
+      <c r="GB1">
+        <v>2.3372760000000001</v>
+      </c>
+      <c r="GC1">
+        <v>-2.5703200000000002</v>
+      </c>
+      <c r="GD1">
+        <v>2.8262429999999998</v>
+      </c>
+      <c r="GE1">
+        <v>-3.1072660000000001</v>
+      </c>
+      <c r="GF1">
+        <v>3.4158200000000001</v>
+      </c>
+      <c r="GG1">
+        <v>-3.754572</v>
+      </c>
+      <c r="GH1">
+        <v>4.1264440000000002</v>
+      </c>
+      <c r="GI1">
+        <v>-4.5346399999999996</v>
+      </c>
+      <c r="GJ1">
+        <v>4.9826670000000002</v>
+      </c>
+      <c r="GK1">
+        <v>-5.4743729999999999</v>
+      </c>
+      <c r="GL1">
+        <v>6.0139699999999996</v>
+      </c>
+      <c r="GM1">
+        <v>-6.6060749999999997</v>
+      </c>
+      <c r="GN1">
+        <v>7.2557479999999996</v>
+      </c>
+      <c r="GO1">
+        <v>-7.9685290000000002</v>
+      </c>
+      <c r="GP1">
+        <v>8.7504910000000002</v>
+      </c>
+      <c r="GQ1">
+        <v>-9.6082830000000001</v>
+      </c>
+      <c r="GR1">
+        <v>10.549191</v>
+      </c>
+      <c r="GS1">
+        <v>-11.581194999999999</v>
+      </c>
+      <c r="GT1">
+        <v>12.713037</v>
+      </c>
+      <c r="GU1">
+        <v>-13.954288</v>
+      </c>
+      <c r="GV1">
+        <v>15.315434</v>
+      </c>
+      <c r="GW1">
+        <v>-16.807957999999999</v>
+      </c>
+      <c r="GX1">
+        <v>18.444434000000001</v>
+      </c>
+      <c r="GY1">
+        <v>-20.238633</v>
+      </c>
+      <c r="GZ1">
+        <v>22.205634</v>
+      </c>
+      <c r="HA1">
+        <v>-24.361948999999999</v>
+      </c>
+      <c r="HB1">
+        <v>26.725656000000001</v>
+      </c>
+      <c r="HC1">
+        <v>-29.316552000000001</v>
+      </c>
+      <c r="HD1">
+        <v>32.156308000000003</v>
+      </c>
+      <c r="HE1">
+        <v>-35.268652000000003</v>
+      </c>
+      <c r="HF1">
+        <v>38.679561999999997</v>
+      </c>
+      <c r="HG1">
+        <v>-42.417473999999999</v>
+      </c>
+      <c r="HH1">
+        <v>46.51352</v>
+      </c>
+      <c r="HI1">
+        <v>-51.001778999999999</v>
+      </c>
+      <c r="HJ1">
+        <v>55.919550999999998</v>
+      </c>
+      <c r="HK1">
+        <v>-61.307670000000002</v>
+      </c>
+      <c r="HL1">
+        <v>67.210825</v>
+      </c>
+      <c r="HM1">
+        <v>-73.677933999999993</v>
+      </c>
+      <c r="HN1">
+        <v>80.762535</v>
+      </c>
+      <c r="HO1">
+        <v>-88.523219999999995</v>
+      </c>
+      <c r="HP1">
+        <v>97.024117000000004</v>
+      </c>
+      <c r="HQ1">
+        <v>-106.33540499999999</v>
+      </c>
+      <c r="HR1">
+        <v>116.533883</v>
+      </c>
+      <c r="HS1">
+        <v>-127.703594</v>
+      </c>
+      <c r="HT1">
+        <v>139.93650600000001</v>
+      </c>
+      <c r="HU1">
+        <v>-153.33325400000001</v>
+      </c>
+      <c r="HV1">
+        <v>168.00395399999999</v>
+      </c>
+      <c r="HW1">
+        <v>-184.069097</v>
+      </c>
+      <c r="HX1">
+        <v>201.660516</v>
+      </c>
+      <c r="HY1">
+        <v>-220.92245700000001</v>
+      </c>
+      <c r="HZ1">
+        <v>242.01273699999999</v>
+      </c>
+      <c r="IA1">
+        <v>-265.10401999999999</v>
+      </c>
+      <c r="IB1">
+        <v>290.38520999999997</v>
+      </c>
+      <c r="IC1">
+        <v>-318.06297000000001</v>
+      </c>
+      <c r="ID1">
+        <v>348.36338899999998</v>
+      </c>
+      <c r="IE1">
+        <v>-381.53379699999999</v>
+      </c>
+      <c r="IF1">
+        <v>417.84476000000001</v>
+      </c>
+      <c r="IG1">
+        <v>-457.59225500000002</v>
+      </c>
+      <c r="IH1">
+        <v>501.10004300000003</v>
+      </c>
+      <c r="II1">
+        <v>-548.72227799999996</v>
+      </c>
+      <c r="IJ1">
+        <v>600.84634100000005</v>
+      </c>
+      <c r="IK1">
+        <v>-657.89595999999995</v>
+      </c>
+      <c r="IL1">
+        <v>720.33460000000002</v>
+      </c>
+      <c r="IM1">
+        <v>-788.66918199999998</v>
+      </c>
+      <c r="IN1">
+        <v>863.45414800000003</v>
+      </c>
+      <c r="IO1">
+        <v>-945.29589899999996</v>
+      </c>
+      <c r="IP1">
+        <v>1034.857655</v>
+      </c>
+      <c r="IQ1">
+        <v>-1132.864759</v>
+      </c>
+      <c r="IR1">
+        <v>1240.110486</v>
+      </c>
+      <c r="IS1">
+        <v>-1357.462383</v>
+      </c>
+      <c r="IT1">
+        <v>1485.8692040000001</v>
+      </c>
+      <c r="IU1">
+        <v>-1626.3684989999999</v>
+      </c>
+      <c r="IV1">
+        <v>1780.094891</v>
+      </c>
+      <c r="IW1">
+        <v>-1948.289149</v>
+      </c>
+      <c r="IX1">
+        <v>2132.3080789999999</v>
+      </c>
+      <c r="IY1">
+        <v>-2333.6353600000002</v>
+      </c>
+      <c r="IZ1">
+        <v>2553.8933740000002</v>
+      </c>
+      <c r="JA1">
+        <v>-2794.8561410000002</v>
+      </c>
+      <c r="JB1">
+        <v>3058.4634609999998</v>
+      </c>
+      <c r="JC1">
+        <v>-3346.8363680000002</v>
+      </c>
+      <c r="JD1">
+        <v>3662.294022</v>
+      </c>
+      <c r="JE1">
+        <v>-4007.3721770000002</v>
+      </c>
+      <c r="JF1">
+        <v>4384.8433640000003</v>
+      </c>
+      <c r="JG1">
+        <v>-4797.7389480000002</v>
+      </c>
+      <c r="JH1">
+        <v>5249.3732419999997</v>
+      </c>
+      <c r="JI1">
+        <v>-5743.3698590000004</v>
+      </c>
+      <c r="JJ1">
+        <v>6283.690517</v>
+      </c>
+      <c r="JK1">
+        <v>-6874.6665199999998</v>
+      </c>
+      <c r="JL1">
+        <v>7521.0331649999998</v>
+      </c>
+      <c r="JM1">
+        <v>-8227.9673449999991</v>
+      </c>
+      <c r="JN1">
+        <v>9001.1286529999998</v>
+      </c>
+      <c r="JO1">
+        <v>-9846.7042949999995</v>
+      </c>
+      <c r="JP1">
+        <v>10771.458186</v>
+      </c>
+      <c r="JQ1">
+        <v>-11782.784594999999</v>
+      </c>
+      <c r="JR1">
+        <v>12888.766786</v>
+      </c>
+      <c r="JS1">
+        <v>-14098.241094000001</v>
+      </c>
+      <c r="JT1">
+        <v>15420.866953000001</v>
+      </c>
+      <c r="JU1">
+        <v>-16867.203434999999</v>
+      </c>
+      <c r="JV1">
+        <v>18448.792879000001</v>
+      </c>
+      <c r="JW1">
+        <v>-20178.252297999999</v>
+      </c>
+      <c r="JX1">
+        <v>22069.373262000001</v>
+      </c>
+      <c r="JY1">
+        <v>-24137.231050999999</v>
+      </c>
+      <c r="JZ1">
+        <v>26398.303942999999</v>
+      </c>
+      <c r="KA1">
+        <v>-28870.603563000001</v>
+      </c>
+      <c r="KB1">
+        <v>31573.817330999998</v>
+      </c>
+      <c r="KC1">
+        <v>-34529.464123999998</v>
+      </c>
+      <c r="KD1">
+        <v>37761.064373000001</v>
+      </c>
+      <c r="KE1">
+        <v>-41294.325945999997</v>
+      </c>
+      <c r="KF1">
+        <v>45157.347259000002</v>
+      </c>
+      <c r="KG1">
+        <v>-49380.839227999997</v>
+      </c>
+      <c r="KH1">
+        <v>53998.367804000001</v>
+      </c>
+      <c r="KI1">
+        <v>-59046.618992000003</v>
+      </c>
+      <c r="KJ1">
+        <v>64565.688434000003</v>
+      </c>
+      <c r="KK1">
+        <v>-70599.396036999999</v>
+      </c>
+      <c r="KL1">
+        <v>77195.641743999993</v>
+      </c>
+      <c r="KM1">
+        <v>-84406.755470000004</v>
+      </c>
+      <c r="KN1">
+        <v>92289.965530000001</v>
+      </c>
+      <c r="KO1">
+        <v>-100907.753849</v>
+      </c>
+      <c r="KP1">
+        <v>110328.505655</v>
+      </c>
+      <c r="KQ1">
+        <v>-120626.797765</v>
+      </c>
+      <c r="KR1">
+        <v>131884.377817</v>
+      </c>
+      <c r="KS1">
+        <v>-144190.20992200001</v>
+      </c>
+      <c r="KT1">
+        <v>157642.07053299999</v>
+      </c>
+      <c r="KU1">
+        <v>-172346.00822300001</v>
+      </c>
+      <c r="KV1">
+        <v>188419.055895</v>
+      </c>
+      <c r="KW1">
+        <v>-205987.52014400001</v>
+      </c>
+      <c r="KX1">
+        <v>225191.587134</v>
+      </c>
+      <c r="KY1">
+        <v>-246181.57539799999</v>
+      </c>
+      <c r="KZ1">
+        <v>269125.49380400003</v>
+      </c>
+      <c r="LA1">
+        <v>-294202.16246000002</v>
+      </c>
+      <c r="LB1">
+        <v>321612.94367299997</v>
+      </c>
+      <c r="LC1">
+        <v>-351570.60431999998</v>
+      </c>
+      <c r="LD1">
+        <v>384316.329234</v>
+      </c>
+      <c r="LE1">
+        <v>-420103.512162</v>
+      </c>
+      <c r="LF1">
+        <v>459220.66050599999</v>
+      </c>
+      <c r="LG1">
+        <v>-501970.02048299997</v>
+      </c>
+      <c r="LH1">
+        <v>548696.11051699996</v>
+      </c>
+      <c r="LI1">
+        <v>-599760.10131000006</v>
+      </c>
+      <c r="LJ1">
+        <v>655572.67430700001</v>
+      </c>
+      <c r="LK1">
+        <v>-716566.10644700006</v>
+      </c>
+      <c r="LL1">
+        <v>783229.27882000001</v>
+      </c>
+      <c r="LM1">
+        <v>-856080.10306500003</v>
+      </c>
+      <c r="LN1">
+        <v>935700.13406299998</v>
+      </c>
+      <c r="LO1">
+        <v>-1022710.060726</v>
+      </c>
+      <c r="LP1">
+        <v>1117801.6600629999</v>
+      </c>
+      <c r="LQ1">
+        <v>-1221718.533549</v>
+      </c>
+      <c r="LR1">
+        <v>1335283.973922</v>
+      </c>
+      <c r="LS1">
+        <v>-1459388.1814850001</v>
+      </c>
+      <c r="LT1">
+        <v>1595011.6934539999</v>
+      </c>
+      <c r="LU1">
+        <v>-1743219.314299</v>
+      </c>
+      <c r="LV1">
+        <v>1905179.730923</v>
+      </c>
+      <c r="LW1">
+        <v>-2082165.6473010001</v>
+      </c>
+      <c r="LX1">
+        <v>2275570.842197</v>
+      </c>
+      <c r="LY1">
+        <v>-2486915.658175</v>
+      </c>
+      <c r="LZ1">
+        <v>2717863.0003689998</v>
+      </c>
+      <c r="MA1">
+        <v>-2970228.3641929999</v>
+      </c>
+      <c r="MB1">
+        <v>3245996.2210129998</v>
+      </c>
+      <c r="MC1">
+        <v>-3547334.0424029999</v>
+      </c>
+      <c r="MD1">
+        <v>3876610.3276499999</v>
+      </c>
+      <c r="ME1">
+        <v>-4236412.4461559998</v>
+      </c>
+      <c r="MF1">
+        <v>4629567.3673219997</v>
+      </c>
+      <c r="MG1">
+        <v>-5059163.4943430005</v>
+      </c>
+      <c r="MH1">
+        <v>5528575.0356799997</v>
+      </c>
+      <c r="MI1">
+        <v>-6041488.3016229998</v>
+      </c>
+      <c r="MJ1">
+        <v>6601930.6309190001</v>
+      </c>
+      <c r="MK1">
+        <v>-7214301.8690290004</v>
+      </c>
+      <c r="ML1">
+        <v>7883408.8252720004</v>
+      </c>
+      <c r="MM1">
+        <v>-8614502.8719609994</v>
+      </c>
+      <c r="MN1">
+        <v>9413321.0395919997</v>
+      </c>
+      <c r="MO1">
+        <v>-10286130.89504</v>
+      </c>
+      <c r="MP1">
+        <v>11239779.571613001</v>
+      </c>
+      <c r="MQ1">
+        <v>-12281747.3237</v>
+      </c>
+      <c r="MR1">
+        <v>13420206.02923</v>
+      </c>
+      <c r="MS1">
+        <v>-14664083.093775</v>
+      </c>
+      <c r="MT1">
+        <v>16023131.256358</v>
+      </c>
+      <c r="MU1">
+        <v>-17508004.840950001</v>
+      </c>
+      <c r="MV1">
+        <v>19130343.048927002</v>
+      </c>
+      <c r="MW1">
+        <v>-20902860.942163002</v>
+      </c>
+      <c r="MX1">
+        <v>22839448.826577999</v>
+      </c>
+      <c r="MY1">
+        <v>-24955280.811393999</v>
+      </c>
+      <c r="MZ1">
+        <v>27266933.390843</v>
+      </c>
+      <c r="NA1">
+        <v>-29792514.973228</v>
+      </c>
+      <c r="NB1">
+        <v>32551807.367520001</v>
+      </c>
+      <c r="NC1">
+        <v>-35566420.330870003</v>
+      </c>
+      <c r="ND1">
+        <v>38859960.382188</v>
+      </c>
+      <c r="NE1">
+        <v>-42458215.198100999</v>
+      </c>
+      <c r="NF1">
+        <v>46389355.029011004</v>
+      </c>
+      <c r="NG1">
+        <v>-50684152.705568001</v>
+      </c>
+      <c r="NH1">
+        <v>55376223.950737</v>
+      </c>
+      <c r="NI1">
+        <v>-60502289.870762996</v>
+      </c>
+      <c r="NJ1">
+        <v>66102463.671177998</v>
+      </c>
+      <c r="NK1">
+        <v>-72220563.832622007</v>
+      </c>
+      <c r="NL1">
+        <v>78904456.187400997</v>
+      </c>
+      <c r="NM1">
+        <v>-86206427.562758997</v>
+      </c>
+      <c r="NN1">
+        <v>94183593.902709007</v>
+      </c>
+      <c r="NO1">
+        <v>-102898346.04877</v>
+      </c>
+      <c r="NP1">
+        <v>112418836.653229</v>
+      </c>
+      <c r="NQ1">
+        <v>-122819512.018821</v>
+      </c>
+      <c r="NR1">
+        <v>134181693.008586</v>
+      </c>
+      <c r="NS1">
+        <v>-146594209.55169001</v>
+      </c>
+      <c r="NT1">
+        <v>160154093.68831301</v>
+      </c>
+      <c r="NU1">
+        <v>-174967336.55246001</v>
+      </c>
+      <c r="NV1">
+        <v>191149715.18931201</v>
+      </c>
+      <c r="NW1">
+        <v>-208827695.64736801</v>
+      </c>
+      <c r="NX1">
+        <v>228139419.379426</v>
+      </c>
+      <c r="NY1">
+        <v>-249235780.634873</v>
+      </c>
+      <c r="NZ1">
+        <v>272281603.23406798</v>
+      </c>
+      <c r="OA1">
+        <v>-297456925.88908398</v>
+      </c>
+      <c r="OB1">
+        <v>324958406.07992798</v>
+      </c>
+      <c r="OC1">
+        <v>-355000853.418033</v>
+      </c>
+      <c r="OD1">
+        <v>387818904.43653601</v>
+      </c>
+      <c r="OE1">
+        <v>-423668851.84745902</v>
+      </c>
+      <c r="OF1">
+        <v>462830642.50793397</v>
+      </c>
+      <c r="OG1">
+        <v>-505610059.65039998</v>
+      </c>
+      <c r="OH1">
+        <v>552341106.36550999</v>
+      </c>
+      <c r="OI1">
+        <v>-603388608.89236999</v>
+      </c>
+      <c r="OJ1">
+        <v>659151059.98097706</v>
+      </c>
+      <c r="OK1">
+        <v>-720063724.45951796</v>
+      </c>
+      <c r="OL1">
+        <v>786602031.17913198</v>
+      </c>
+      <c r="OM1">
+        <v>-859285277.73666203</v>
+      </c>
+      <c r="ON1">
+        <v>938680676.80911803</v>
+      </c>
+      <c r="OO1">
+        <v>-1025407775.5909899</v>
+      </c>
+      <c r="OP1">
+        <v>1120143282.72787</v>
+      </c>
+      <c r="OQ1">
+        <v>-1223626340.3094599</v>
+      </c>
+      <c r="OR1">
+        <v>1336664281.9469399</v>
+      </c>
+      <c r="OS1">
+        <v>-1460138921.7402899</v>
+      </c>
+      <c r="OT1">
+        <v>1595013423.07039</v>
+      </c>
+      <c r="OU1">
+        <v>-1742339800.6600399</v>
+      </c>
+      <c r="OV1">
+        <v>1903267114.2733099</v>
+      </c>
+      <c r="OW1">
+        <v>-2079050417.8013201</v>
+      </c>
+      <c r="OX1">
+        <v>2271060533.3568201</v>
+      </c>
+      <c r="OY1">
+        <v>-2480794726.4156699</v>
+      </c>
+      <c r="OZ1">
+        <v>2709888365.0499401</v>
+      </c>
+      <c r="PA1">
+        <v>-2960127653.94945</v>
+      </c>
+      <c r="PB1">
+        <v>3233463542.2857299</v>
+      </c>
+      <c r="PC1">
+        <v>-3532026913.5996699</v>
+      </c>
+      <c r="PD1">
+        <v>3858145175.8617301</v>
+      </c>
+      <c r="PE1">
+        <v>-4214360380.7400398</v>
+      </c>
+      <c r="PF1">
+        <v>4603449013.0007801</v>
+      </c>
+      <c r="PG1">
+        <v>-5028443603.94944</v>
+      </c>
+      <c r="PH1">
+        <v>5492656337.0023699</v>
+      </c>
+      <c r="PI1">
+        <v>-5999704828.9643803</v>
+      </c>
+      <c r="PJ1">
+        <v>6553540287.5020704</v>
+      </c>
+      <c r="PK1">
+        <v>-7158478263.7737303</v>
+      </c>
+      <c r="PL1">
+        <v>7819232239.3497105</v>
+      </c>
+      <c r="PM1">
+        <v>-8540950308.5885801</v>
+      </c>
+      <c r="PN1">
+        <v>9329255241.69491</v>
+      </c>
+      <c r="PO1">
+        <v>-10190288239.9615</v>
+      </c>
+      <c r="PP1">
+        <v>11130756723.3969</v>
+      </c>
+      <c r="PQ1">
+        <v>-12157986522.2782</v>
+      </c>
+      <c r="PR1">
+        <v>13279978878.3993</v>
+      </c>
+      <c r="PS1">
+        <v>-14505472699.163099</v>
+      </c>
+      <c r="PT1">
+        <v>15844012548.4902</v>
+      </c>
+      <c r="PU1">
+        <v>-17306022903.100498</v>
+      </c>
+      <c r="PV1">
+        <v>18902889251.4132</v>
+      </c>
+      <c r="PW1">
+        <v>-20647046665.487301</v>
+      </c>
+      <c r="PX1">
+        <v>22552076534.4939</v>
+      </c>
+      <c r="PY1">
+        <v>-24632812211.636101</v>
+      </c>
+      <c r="PZ1">
+        <v>26905454395.6917</v>
+      </c>
+      <c r="QA1">
+        <v>-29387697143.996498</v>
+      </c>
+      <c r="QB1">
+        <v>32098865496.294498</v>
+      </c>
+      <c r="QC1">
+        <v>-35060065779.097198</v>
+      </c>
+      <c r="QD1">
+        <v>38294349758.718201</v>
+      </c>
+      <c r="QE1">
+        <v>-41826893918.7519</v>
+      </c>
+      <c r="QF1">
+        <v>45685195255.269501</v>
+      </c>
+      <c r="QG1">
+        <v>-49899285111.339699</v>
+      </c>
+      <c r="QH1">
+        <v>54501962712.632004</v>
+      </c>
+      <c r="QI1">
+        <v>-59529050218.912804</v>
+      </c>
+      <c r="QJ1">
+        <v>65019671273.402901</v>
+      </c>
+      <c r="QK1">
+        <v>-71016555214.508194</v>
+      </c>
+      <c r="QL1">
+        <v>77566369313.791504</v>
+      </c>
+      <c r="QM1">
+        <v>-84720081621.774307</v>
+      </c>
+      <c r="QN1">
+        <v>92533357240.919693</v>
+      </c>
+      <c r="QO1">
+        <v>-101066991104.812</v>
+      </c>
+      <c r="QP1">
+        <v>110387380626.123</v>
+      </c>
+      <c r="QQ1">
+        <v>-120567041885.646</v>
+      </c>
+      <c r="QR1">
+        <v>131685173372.871</v>
+      </c>
+      <c r="QS1">
+        <v>-143828271657.96301</v>
+      </c>
+      <c r="QT1">
+        <v>157090803778.31699</v>
+      </c>
+      <c r="QU1">
+        <v>-171575941563.418</v>
+      </c>
+      <c r="QV1">
+        <v>187396363602.78</v>
+      </c>
+      <c r="QW1">
+        <v>-204675131087.12799</v>
+      </c>
+      <c r="QX1">
+        <v>223546644326.70499</v>
+      </c>
+      <c r="QY1">
+        <v>-244157687377.22</v>
+      </c>
+      <c r="QZ1">
+        <v>266668568888.17599</v>
+      </c>
+      <c r="RA1">
+        <v>-291254368035.64502</v>
+      </c>
+      <c r="RB1">
+        <v>318106295217.64801</v>
+      </c>
+      <c r="RC1">
+        <v>-347433178081.53302</v>
+      </c>
+      <c r="RD1">
+        <v>379463084426.065</v>
+      </c>
+      <c r="RE1">
+        <v>-414445094583.883</v>
+      </c>
+      <c r="RF1">
+        <v>452651237050.776</v>
+      </c>
+      <c r="RG1">
+        <v>-494378602395.91199</v>
+      </c>
+      <c r="RH1">
+        <v>539951651871.60797</v>
+      </c>
+      <c r="RI1">
+        <v>-589724738653.05798</v>
+      </c>
+      <c r="RJ1">
+        <v>644084861289.60095</v>
+      </c>
+      <c r="RK1">
+        <v>-703454670752.172</v>
+      </c>
+      <c r="RL1">
+        <v>768295754430.76697</v>
+      </c>
+      <c r="RM1">
+        <v>-839112222586.17297</v>
+      </c>
+      <c r="RN1">
+        <v>916454625108.68201</v>
+      </c>
+      <c r="RO1">
+        <v>-1000924229001.17</v>
+      </c>
+      <c r="RP1">
+        <v>1093177689804.8</v>
+      </c>
+      <c r="RQ1">
+        <v>-1193932153244.1001</v>
+      </c>
+      <c r="RR1">
+        <v>1303970826708.78</v>
+      </c>
+      <c r="RS1">
+        <v>-1424149063837.26</v>
+      </c>
+      <c r="RT1">
+        <v>1555401009450.6299</v>
+      </c>
+      <c r="RU1">
+        <v>-1698746856436.3301</v>
+      </c>
+      <c r="RV1">
+        <v>1855300770931.75</v>
+      </c>
+      <c r="RW1">
+        <v>-2026279547346.6001</v>
+      </c>
+      <c r="RX1">
+        <v>2213012060428.6602</v>
+      </c>
+      <c r="RY1">
+        <v>-2416949587765.8198</v>
+      </c>
+      <c r="RZ1">
+        <v>2639677082874.3301</v>
+      </c>
+      <c r="SA1">
+        <v>-2882925486403.2002</v>
+      </c>
+      <c r="SB1">
+        <v>3148585171043.3599</v>
+      </c>
+      <c r="SC1">
+        <v>-3438720624531.6602</v>
+      </c>
+      <c r="SD1">
+        <v>3755586484750.46</v>
+      </c>
+      <c r="SE1">
+        <v>-4101645051420.23</v>
+      </c>
+      <c r="SF1">
+        <v>4479585410344.6396</v>
+      </c>
+      <c r="SG1">
+        <v>-4892344318685.5801</v>
+      </c>
+      <c r="SH1">
+        <v>5343129013415.0801</v>
+      </c>
+      <c r="SI1">
+        <v>-5835442120021.0098</v>
+      </c>
+      <c r="SJ1">
+        <v>6373108854844.2402</v>
+      </c>
+      <c r="SK1">
+        <v>-6960306732231.8496</v>
+      </c>
+      <c r="SL1">
+        <v>7601598007129.5801</v>
+      </c>
+      <c r="SM1">
+        <v>-8301965104975.7598</v>
+      </c>
+      <c r="SN1">
+        <v>9066849313937.1309</v>
+      </c>
+      <c r="SO1">
+        <v>-9902193039862.7598</v>
+      </c>
+      <c r="SP1">
+        <v>10814485951966.1</v>
+      </c>
+      <c r="SQ1">
+        <v>-11810815377471.4</v>
+      </c>
+      <c r="SR1">
+        <v>12898921336402.1</v>
+      </c>
+      <c r="SS1">
+        <v>-14087256643754.4</v>
+      </c>
+      <c r="ST1">
+        <v>15385052545565.199</v>
+      </c>
+      <c r="SU1">
+        <v>-16802390398414</v>
+      </c>
+      <c r="SV1">
+        <v>18350279948707.801</v>
+      </c>
+      <c r="SW1">
+        <v>-20040744819435.199</v>
+      </c>
+      <c r="SX1">
+        <v>21886915867880</v>
+      </c>
+      <c r="SY1">
+        <v>-23903133139028.398</v>
+      </c>
+      <c r="SZ1">
+        <v>26105057205936.301</v>
+      </c>
+      <c r="TA1">
+        <v>-28509790761376.602</v>
+      </c>
+      <c r="TB1">
+        <v>31136011404425.699</v>
+      </c>
+      <c r="TC1">
+        <v>-34004116652763.5</v>
+      </c>
+      <c r="TD1">
+        <v>37136382306100.602</v>
+      </c>
+      <c r="TE1">
+        <v>-40557135390005.797</v>
+      </c>
+      <c r="TF1">
+        <v>44292943022313.703</v>
+      </c>
+      <c r="TG1">
+        <v>-48372818668103.297</v>
+      </c>
+      <c r="TH1">
+        <v>52828447383945.5</v>
+      </c>
+      <c r="TI1">
+        <v>-57694431799706.898</v>
+      </c>
+      <c r="TJ1">
+        <v>63008560746918.703</v>
+      </c>
+      <c r="TK1">
+        <v>-68812102618651.602</v>
+      </c>
+      <c r="TL1">
+        <v>75150125737592.797</v>
+      </c>
+      <c r="TM1">
+        <v>-82071848218752</v>
+      </c>
+      <c r="TN1">
+        <v>89631020041981.203</v>
+      </c>
+      <c r="TO1">
+        <v>-97886340299544.203</v>
+      </c>
+      <c r="TP1">
+        <v>106901912856843</v>
+      </c>
+      <c r="TQ1">
+        <v>-116747743962560</v>
+      </c>
+      <c r="TR1">
+        <v>127500285669934</v>
+      </c>
+      <c r="TS1">
+        <v>-139243029286423</v>
+      </c>
+      <c r="TT1">
+        <v>152067153457168</v>
+      </c>
+      <c r="TU1">
+        <v>-166072231911651</v>
+      </c>
+      <c r="TV1">
+        <v>181367006365854</v>
+      </c>
+      <c r="TW1">
+        <v>-198070230577852</v>
+      </c>
+      <c r="TX1">
+        <v>216311592106840</v>
+      </c>
+      <c r="TY1">
+        <v>-236232718928553</v>
+      </c>
+      <c r="TZ1">
+        <v>257988278718457</v>
+      </c>
+      <c r="UA1">
+        <v>-281747179333125</v>
+      </c>
+      <c r="UB1">
+        <v>307693879805428</v>
+      </c>
+      <c r="UC1">
+        <v>-336029822026679</v>
+      </c>
+      <c r="UD1">
+        <v>366974994225266</v>
+      </c>
+      <c r="UE1">
+        <v>-400769638373959</v>
+      </c>
+      <c r="UF1">
+        <v>437676114774792</v>
+      </c>
+      <c r="UG1">
+        <v>-477980938289959</v>
+      </c>
+      <c r="UH1">
+        <v>521997002018970</v>
+      </c>
+      <c r="UI1">
+        <v>-570066005676638</v>
+      </c>
+      <c r="UJ1">
+        <v>622561107514736</v>
+      </c>
+      <c r="UK1">
+        <v>-679889820364560</v>
+      </c>
+      <c r="UL1">
+        <v>742497174271700</v>
+      </c>
+      <c r="UM1">
+        <v>-810869170262714</v>
+      </c>
+      <c r="UN1">
+        <v>885536552042167</v>
+      </c>
+      <c r="UO1">
+        <v>-967078924885183</v>
+      </c>
+      <c r="UP1">
+        <v>1056129253684350</v>
+      </c>
+      <c r="UQ1">
+        <v>-1153378775051540</v>
+      </c>
+      <c r="UR1">
+        <v>1259582361587430</v>
+      </c>
+      <c r="US1">
+        <v>-1375564379939870</v>
+      </c>
+      <c r="UT1">
+        <v>1502225088102880</v>
+      </c>
+      <c r="UU1">
+        <v>-1640547621591970</v>
+      </c>
+      <c r="UV1">
+        <v>1791605622699670</v>
+      </c>
+      <c r="UW1">
+        <v>-1956571572024900</v>
+      </c>
+      <c r="UX1">
+        <v>2136725886917350</v>
+      </c>
+      <c r="UY1">
+        <v>-2333466857428640</v>
+      </c>
+      <c r="UZ1">
+        <v>2548321496858760</v>
+      </c>
+      <c r="VA1">
+        <v>-2782957391082180</v>
+      </c>
+      <c r="VB1">
+        <v>3039195638586240</v>
+      </c>
+      <c r="VC1">
+        <v>-3319024981616130</v>
+      </c>
+      <c r="VD1">
+        <v>3624617238061350</v>
+      </c>
+      <c r="VE1">
+        <v>-3958344153809250</v>
+      </c>
+      <c r="VF1">
+        <v>4322795806311120</v>
+      </c>
+      <c r="VG1">
+        <v>-4720800702139940</v>
+      </c>
+      <c r="VH1">
+        <v>5155447724460840</v>
+      </c>
+      <c r="VI1">
+        <v>-5630110100685780</v>
+      </c>
+      <c r="VJ1">
+        <v>6148471576256160</v>
+      </c>
+      <c r="VK1">
+        <v>-6714554997611180</v>
+      </c>
+      <c r="VL1">
+        <v>7332753526089070</v>
+      </c>
+      <c r="VM1">
+        <v>-8007864724917970</v>
+      </c>
+      <c r="VN1">
+        <v>8745127783740910</v>
+      </c>
+      <c r="VO1">
+        <v>-9550264169458670</v>
+      </c>
+      <c r="VP1">
+        <v>1.04295220187537E+16</v>
+      </c>
+      <c r="VQ1">
+        <v>-1.1389724616684E+16</v>
+      </c>
+      <c r="VR1">
+        <v>1.24383233374312E+16</v>
+      </c>
+      <c r="VS1">
+        <v>-1.35834554579054E+16</v>
+      </c>
+      <c r="VT1">
+        <v>1.48340072927031E+16</v>
+      </c>
+      <c r="VU1">
+        <v>-1.61996831402E+16</v>
+      </c>
+      <c r="VV1">
+        <v>1.76910805746332E+16</v>
+      </c>
+      <c r="VW1">
+        <v>-1.93197726682575E+16</v>
+      </c>
+      <c r="VX1">
+        <v>2.10983977814159E+16</v>
+      </c>
+      <c r="VY1">
+        <v>-2.3040757617071E+16</v>
+      </c>
+      <c r="VZ1">
+        <v>2.51619243004493E+16</v>
+      </c>
+      <c r="WA1">
+        <v>-2.74783573144614E+16</v>
+      </c>
+      <c r="WB1">
+        <v>3.000803119801E+16</v>
+      </c>
+      <c r="WC1">
+        <v>-3.27705749977845E+16</v>
+      </c>
+      <c r="WD1">
+        <v>3.57874245553151E+16</v>
+      </c>
+      <c r="WE1">
+        <v>-3.90819888106148E+16</v>
+      </c>
+      <c r="WF1">
+        <v>4.267983141247E+16</v>
+      </c>
+      <c r="WG1">
+        <v>-4.66088690441642E+16</v>
+      </c>
+      <c r="WH1">
+        <v>5.0899588003081904E+16</v>
+      </c>
+      <c r="WI1">
+        <v>-5.5585280714229504E+16</v>
+      </c>
+      <c r="WJ1">
+        <v>6.0702304012331504E+16</v>
+      </c>
+      <c r="WK1">
+        <v>-6.6290361196012496E+16</v>
+      </c>
+      <c r="WL1">
+        <v>7.2392810041969696E+16</v>
+      </c>
+      <c r="WM1">
+        <v>-7.90569991684E+16</v>
+      </c>
+      <c r="WN1">
+        <v>8.6334635356842E+16</v>
+      </c>
+      <c r="WO1">
+        <v>-9.42821846817244E+16</v>
+      </c>
+      <c r="WP1">
+        <v>1.02961310559142E+17</v>
+      </c>
+      <c r="WQ1">
+        <v>-1.12439352112752E+17</v>
+      </c>
+      <c r="WR1">
+        <v>1.2278984656738499E+17</v>
+      </c>
+      <c r="WS1">
+        <v>-1.3409309972249699E+17</v>
+      </c>
+      <c r="WT1">
+        <v>1.4643680893048E+17</v>
+      </c>
+      <c r="WU1">
+        <v>-1.5991674341212602E+17</v>
+      </c>
+      <c r="WV1">
+        <v>1.7463748718625501E+17</v>
+      </c>
+      <c r="WW1">
+        <v>-1.9071325037618701E+17</v>
+      </c>
+      <c r="WX1">
+        <v>2.0826875518606598E+17</v>
+      </c>
+      <c r="WY1">
+        <v>-2.2744020341925402E+17</v>
+      </c>
+      <c r="WZ1">
+        <v>2.4837633304341699E+17</v>
+      </c>
+      <c r="XA1">
+        <v>-2.7123957199764499E+17</v>
+      </c>
+      <c r="XB1">
+        <v>2.9620729819115898E+17</v>
+      </c>
+      <c r="XC1">
+        <v>-3.2347321546678899E+17</v>
+      </c>
+      <c r="XD1">
+        <v>3.5324885620188301E+17</v>
+      </c>
+      <c r="XE1">
+        <v>-3.8576522220149798E+17</v>
+      </c>
+      <c r="XF1">
+        <v>4.2127457661135302E+17</v>
+      </c>
+      <c r="XG1">
+        <v>-4.6005240074935002E+17</v>
+      </c>
+      <c r="XH1">
+        <v>5.0239953103358003E+17</v>
+      </c>
+      <c r="XI1">
+        <v>-5.4864449258159098E+17</v>
+      </c>
+      <c r="XJ1">
+        <v>5.9914604758106803E+17</v>
+      </c>
+      <c r="XK1">
+        <v>-6.5429597819784499E+17</v>
+      </c>
+      <c r="XL1">
+        <v>7.1452212560626406E+17</v>
+      </c>
+      <c r="XM1">
+        <v>-7.8029170871333696E+17</v>
+      </c>
+      <c r="XN1">
+        <v>8.5211494831749798E+17</v>
+      </c>
+      <c r="XO1">
+        <v>-9.3054902481161894E+17</v>
+      </c>
+      <c r="XP1">
+        <v>1.01620240012693E+18</v>
+      </c>
+      <c r="XQ1">
+        <v>-1.10973953743953E+18</v>
+      </c>
+      <c r="XR1">
+        <v>1.2118860552460001E+18</v>
+      </c>
+      <c r="XS1">
+        <v>-1.32343435578384E+18</v>
+      </c>
+      <c r="XT1">
+        <v>1.4452497714510001E+18</v>
+      </c>
+      <c r="XU1">
+        <v>-1.57827727689662E+18</v>
+      </c>
+      <c r="XV1">
+        <v>1.72354881884209E+18</v>
+      </c>
+      <c r="XW1">
+        <v>-1.88219132048254E+18</v>
+      </c>
+      <c r="XX1">
+        <v>2.05543542255091E+18</v>
+      </c>
+      <c r="XY1">
+        <v>-2.24462502883983E+18</v>
+      </c>
+      <c r="XZ1">
+        <v>2.4512277302158397E+18</v>
+      </c>
+      <c r="YA1">
+        <v>-2.6768461879738701E+18</v>
+      </c>
+      <c r="YB1">
+        <v>2.9232305648198001E+18</v>
+      </c>
+      <c r="YC1">
+        <v>-3.1922920998946202E+18</v>
+      </c>
+      <c r="YD1">
+        <v>3.48611793312574E+18</v>
+      </c>
+      <c r="YE1">
+        <v>-3.80698729388081E+18</v>
+      </c>
+      <c r="YF1">
+        <v>4.1573891794801101E+18</v>
+      </c>
+      <c r="YG1">
+        <v>-4.5400416606783002E+18</v>
+      </c>
+      <c r="YH1">
+        <v>4.9579129638444298E+18</v>
+      </c>
+      <c r="YI1">
+        <v>-5.4142444933482404E+18</v>
+      </c>
+      <c r="YJ1">
+        <v>5.9125759727081103E+18</v>
+      </c>
+      <c r="YK1">
+        <v>-6.4567728994880604E+18</v>
+      </c>
+      <c r="YL1">
+        <v>7.0510565268753398E+18</v>
+      </c>
+      <c r="YM1">
+        <v>-7.7000366044658801E+18</v>
+      </c>
+      <c r="YN1">
+        <v>8.4087471321833902E+18</v>
+      </c>
+      <c r="YO1">
+        <v>-9.1826854046264801E+18</v>
+      </c>
+      <c r="YP1">
+        <v>1.00278546486563E+19</v>
+      </c>
+      <c r="YQ1">
+        <v>-1.0950810584904401E+19</v>
+      </c>
+      <c r="YR1">
+        <v>1.19587122743121E+19</v>
+      </c>
+      <c r="YS1">
+        <v>-1.3059377644043801E+19</v>
+      </c>
+      <c r="YT1">
+        <v>1.4261344123408099E+19</v>
+      </c>
+      <c r="YU1">
+        <v>-1.55739348600494E+19</v>
+      </c>
+      <c r="YV1">
+        <v>1.70073310299486E+19</v>
+      </c>
+      <c r="YW1">
+        <v>-1.8572650802032898E+19</v>
+      </c>
+      <c r="YX1">
+        <v>2.0282035569800798E+19</v>
+      </c>
+      <c r="YY1">
+        <v>-2.21487441187277E+19</v>
+      </c>
+      <c r="YZ1">
+        <v>2.4187255459759198E+19</v>
+      </c>
+      <c r="ZA1">
+        <v>-2.6413381126408798E+19</v>
+      </c>
+      <c r="ZB1">
+        <v>2.8844387806368301E+19</v>
+      </c>
+      <c r="ZC1">
+        <v>-3.14991312586844E+19</v>
+      </c>
+      <c r="ZD1">
+        <v>3.4398202555076399E+19</v>
+      </c>
+      <c r="ZE1">
+        <v>-3.7564087779548504E+19</v>
+      </c>
+      <c r="ZF1">
+        <v>4.1021342424816501E+19</v>
+      </c>
+      <c r="ZG1">
+        <v>-4.47967818380491E+19</v>
+      </c>
+      <c r="ZH1">
+        <v>4.8919689192884298E+19</v>
+      </c>
+      <c r="ZI1">
+        <v>-5.3422042600602403E+19</v>
+      </c>
+      <c r="ZJ1">
+        <v>5.8338763121761698E+19</v>
+      </c>
+      <c r="ZK1">
+        <v>-6.3707985601686397E+19</v>
+      </c>
+      <c r="ZL1">
+        <v>6.9571354430199398E+19</v>
+      </c>
+      <c r="ZM1">
+        <v>-7.5974346519278698E+19</v>
+      </c>
+      <c r="ZN1">
+        <v>8.2966624003392307E+19</v>
+      </c>
+      <c r="ZO1">
+        <v>-9.0602419397768102E+19</v>
+      </c>
+      <c r="ZP1">
+        <v>9.8940956201564504E+19</v>
+      </c>
+      <c r="ZQ1">
+        <v>-1.08046908207783E+20</v>
+      </c>
+      <c r="ZR1">
+        <v>1.17990901081936E+20</v>
+      </c>
+      <c r="ZS1">
+        <v>-1.2885006009927E+20</v>
+      </c>
+      <c r="ZT1">
+        <v>1.40708608288308E+20</v>
+      </c>
+      <c r="ZU1">
+        <v>-1.5365851961936799E+20</v>
+      </c>
+      <c r="ZV1">
+        <v>1.6780023230359201E+20</v>
+      </c>
+      <c r="ZW1">
+        <v>-1.8324342773415399E+20</v>
+      </c>
+      <c r="ZX1">
+        <v>2.00107881110387E+20</v>
+      </c>
+      <c r="ZY1">
+        <v>-2.18524390341441E+20</v>
+      </c>
+      <c r="ZZ1">
+        <v>2.3863579043314899E+20</v>
+      </c>
+      <c r="AAA1">
+        <v>-2.6059806122466899E+20</v>
+      </c>
+      <c r="AAB1">
+        <v>2.8458153706541298E+20</v>
+      </c>
+      <c r="AAC1">
+        <v>-3.1077222781326E+20</v>
+      </c>
+      <c r="AAD1">
+        <v>3.3937326139837101E+20</v>
+      </c>
+      <c r="AAE1">
+        <v>-3.7060645913962899E+20</v>
+      </c>
+      <c r="AAF1">
+        <v>4.0471405603015898E+20</v>
+      </c>
+      <c r="AAG1">
+        <v>-4.4196057933266302E+20</v>
+      </c>
+      <c r="AAH1">
+        <v>4.8263490005288898E+20</v>
+      </c>
+      <c r="AAI1">
+        <v>-5.2705247320021402E+20</v>
+      </c>
+      <c r="AAJ1">
+        <v>5.7555778420834199E+20</v>
+      </c>
+      <c r="AAK1">
+        <v>-6.2852702048777195E+20</v>
+      </c>
+      <c r="AAL1">
+        <v>6.8637098882760206E+20</v>
+      </c>
+      <c r="AAM1">
+        <v>-7.49538301270669E+20</v>
+      </c>
+      <c r="AAN1">
+        <v>8.18518854167985E+20</v>
+      </c>
+      <c r="AAO1">
+        <v>-8.9384762739194895E+20</v>
+      </c>
+      <c r="AAP1">
+        <v>9.7610883317052001E+20</v>
+      </c>
+      <c r="AAQ1">
+        <v>-1.06594044671577E+21</v>
+      </c>
+      <c r="AAR1">
+        <v>1.16403915378088E+21</v>
+      </c>
+      <c r="AAS1">
+        <v>-1.2711657535128501E+21</v>
+      </c>
+      <c r="AAT1">
+        <v>1.3881510584986601E+21</v>
+      </c>
+      <c r="AAU1">
+        <v>-1.5159023377585899E+21</v>
+      </c>
+      <c r="AAV1">
+        <v>1.6554103526501201E+21</v>
+      </c>
+      <c r="AAW1">
+        <v>-1.8077570402442999E+21</v>
+      </c>
+      <c r="AAX1">
+        <v>1.9741239037568399E+21</v>
+      </c>
+      <c r="AAY1">
+        <v>-2.1558011750994199E+21</v>
+      </c>
+      <c r="AAZ1">
+        <v>2.3541978206040199E+21</v>
+      </c>
+      <c r="ABA1">
+        <v>-2.5708524675115899E+21</v>
+      </c>
+      <c r="ABB1">
+        <v>2.8074453359564601E+21</v>
+      </c>
+      <c r="ABC1">
+        <v>-3.0658112689750802E+21</v>
+      </c>
+      <c r="ABD1">
+        <v>3.34795396158242E+21</v>
+      </c>
+      <c r="ABE1">
+        <v>-3.65606149925743E+21</v>
+      </c>
+      <c r="ABF1">
+        <v>3.99252332633283E+21</v>
+      </c>
+      <c r="ABG1">
+        <v>-4.3599487758729898E+21</v>
+      </c>
+      <c r="ABH1">
+        <v>4.7611873047316896E+21</v>
+      </c>
+      <c r="ABI1">
+        <v>-5.1993505907048805E+21</v>
+      </c>
+      <c r="ABJ1">
+        <v>5.6778366631328895E+21</v>
+      </c>
+      <c r="ABK1">
+        <v>-6.20035625407484E+21</v>
+      </c>
+      <c r="ABL1">
+        <v>6.7709615743975303E+21</v>
+      </c>
+      <c r="ABM1">
+        <v>-7.3940777379248703E+21</v>
+      </c>
+      <c r="ABN1">
+        <v>8.0745370773280795E+21</v>
+      </c>
+      <c r="ABO1">
+        <v>-8.8176166178610301E+21</v>
+      </c>
+      <c r="ABP1">
+        <v>9.6290789995319206E+21</v>
+      </c>
+      <c r="ABQ1">
+        <v>-1.0515217165043601E+22</v>
+      </c>
+      <c r="ABR1">
+        <v>1.14829031600361E+22</v>
+      </c>
+      <c r="ABS1">
+        <v>-1.25396414240524E+22</v>
+      </c>
+      <c r="ABT1">
+        <v>1.3693626985473399E+22</v>
+      </c>
+      <c r="ABU1">
+        <v>-1.49538090116935E+22</v>
+      </c>
+      <c r="ABV1">
+        <v>1.63299602073348E+22</v>
+      </c>
+      <c r="ABW1">
+        <v>-1.7832752598647499E+22</v>
+      </c>
+      <c r="ABX1">
+        <v>1.9473840291763102E+22</v>
+      </c>
+      <c r="ABY1">
+        <v>-2.1265949846545302E+22</v>
+      </c>
+      <c r="ABZ1">
+        <v>2.3222978966837698E+22</v>
+      </c>
+      <c r="ACA1">
+        <v>-2.5360104272396101E+22</v>
+      </c>
+      <c r="ACB1">
+        <v>2.76938989882135E+22</v>
+      </c>
+      <c r="ACC1">
+        <v>-3.0242461463851599E+22</v>
+      </c>
+      <c r="ACD1">
+        <v>3.3025555519369101E+22</v>
+      </c>
+      <c r="ACE1">
+        <v>-3.60647637061456E+22</v>
+      </c>
+      <c r="ACF1">
+        <v>3.9383654671046301E+22</v>
+      </c>
+      <c r="ACG1">
+        <v>-4.3007965921732599E+22</v>
+      </c>
+      <c r="ACH1">
+        <v>4.69658034103496E+22</v>
+      </c>
+      <c r="ACI1">
+        <v>-5.1287859483236199E+22</v>
+      </c>
+      <c r="ACJ1">
+        <v>5.60076508867171E+22</v>
+      </c>
+      <c r="ACK1">
+        <v>-6.1161778674557904E+22</v>
+      </c>
+      <c r="ACL1">
+        <v>6.67902120324942E+22</v>
+      </c>
+      <c r="ACM1">
+        <v>-7.2936598220705001E+22</v>
+      </c>
+      <c r="ACN1">
+        <v>7.9648601037626304E+22</v>
+      </c>
+      <c r="ACO1">
+        <v>-8.6978270429659198E+22</v>
+      </c>
+      <c r="ACP1">
+        <v>9.4982446112843703E+22</v>
+      </c>
+      <c r="ACQ1">
+        <v>-1.0372319833629999E+23</v>
+      </c>
+      <c r="ACR1">
+        <v>1.1326830920525E+23</v>
+      </c>
+      <c r="ACS1">
+        <v>-1.2369179829593101E+23</v>
+      </c>
+      <c r="ACT1">
+        <v>1.35074496638178E+23</v>
+      </c>
+      <c r="ACU1">
+        <v>-1.4750467351647201E+23</v>
+      </c>
+      <c r="ACV1">
+        <v>1.61078720949858E+23</v>
+      </c>
+      <c r="ACW1">
+        <v>-1.7590190115835301E+23</v>
+      </c>
+      <c r="ACX1">
+        <v>1.9208916281187999E+23</v>
+      </c>
+      <c r="ACY1">
+        <v>-2.0976603239114199E+23</v>
+      </c>
+      <c r="ACZ1">
+        <v>2.2906958757223E+23</v>
+      </c>
+      <c r="ADA1">
+        <v>-2.50149520182835E+23</v>
+      </c>
+      <c r="ADB1">
+        <v>2.73169296972445E+23</v>
+      </c>
+      <c r="ADC1">
+        <v>-2.9830742719739501E+23</v>
+      </c>
+      <c r="ADD1">
+        <v>3.2575884684988901E+23</v>
+      </c>
+      <c r="ADE1">
+        <v>-3.5573643026456903E+23</v>
+      </c>
+      <c r="ADF1">
+        <v>3.8847264082394003E+23</v>
+      </c>
+      <c r="ADG1">
+        <v>-4.2422133356250501E+23</v>
+      </c>
+      <c r="ADH1">
+        <v>4.6325972364734401E+23</v>
+      </c>
+      <c r="ADI1">
+        <v>-5.0589053599906398E+23</v>
+      </c>
+      <c r="ADJ1">
+        <v>5.5244435272163699E+23</v>
+      </c>
+      <c r="ADK1">
+        <v>-6.0328217654347497E+23</v>
+      </c>
+      <c r="ADL1">
+        <v>6.5879823014704406E+23</v>
+      </c>
+      <c r="ADM1">
+        <v>-7.19423013093444E+23</v>
+      </c>
+      <c r="ADN1">
+        <v>7.8562664004574604E+23</v>
+      </c>
+      <c r="ADO1">
+        <v>-8.5792248617613801E+23</v>
+      </c>
+      <c r="ADP1">
+        <v>9.3687116802380995E+23</v>
+      </c>
+      <c r="ADQ1">
+        <v>-1.0230848906716299E+24</v>
+      </c>
+      <c r="ADR1">
+        <v>1.11723219495012E+24</v>
+      </c>
+      <c r="ADS1">
+        <v>-1.22004314147904E+24</v>
+      </c>
+      <c r="ADT1">
+        <v>1.33231497174418E+24</v>
       </c>
     </row>
   </sheetData>

--- a/FDTD1D/test.xlsx
+++ b/FDTD1D/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xhoni\OneDrive\Desktop\Master Thesis\trunk\FDTD1D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF62198A-D088-4242-99DC-88DB7166483C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D11A1A-B2F1-43A1-BEB7-1252801437CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5162,37 +5162,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -12198,14 +12168,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>68035</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12541,8 +12511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ADT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="P22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
